--- a/xlsx/データアナリティクス基礎/演習問題_データアナリティクス基礎/第7章演習問題_授業効果の検証.xlsx
+++ b/xlsx/データアナリティクス基礎/演習問題_データアナリティクス基礎/第7章演習問題_授業効果の検証.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JSTORAGE.jmam.local\users$\JM0835\山地の仕事\書籍\統計検定データサイエンス\データセット\演習問題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY810251\python\dataAnalyticsBasic\xlsx\データアナリティクス基礎\演習問題_データアナリティクス基礎\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5835760A-2084-4B22-AAB5-7685703F2B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A578D7E0-E48A-43F9-9C7E-BCEDA3C71F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13880" yWindow="0" windowWidth="24610" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="データ" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -61,11 +61,98 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>ave</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>std error</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>confi.T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mean.upper</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t-検定: 一対の標本による平均の検定ツール</t>
+  </si>
+  <si>
+    <t>変数 1</t>
+  </si>
+  <si>
+    <t>変数 2</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>分散</t>
+  </si>
+  <si>
+    <t>観測数</t>
+  </si>
+  <si>
+    <t>ピアソン相関</t>
+  </si>
+  <si>
+    <t>仮説平均との差異</t>
+  </si>
+  <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t </t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 片側</t>
+  </si>
+  <si>
+    <t>t 境界値 片側</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 両側</t>
+  </si>
+  <si>
+    <t>t 境界値 両側</t>
+  </si>
+  <si>
+    <t>平均が等しい確率</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="183" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -167,6 +254,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -174,7 +281,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,6 +296,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -472,16 +597,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2309AEB4-3365-4FA2-BA14-00F3CAF5FCBA}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.44140625" customWidth="1"/>
+    <col min="1" max="3" width="10.453125" customWidth="1"/>
+    <col min="6" max="8" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -492,7 +620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -502,8 +630,15 @@
       <c r="C2" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>-3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -513,8 +648,12 @@
       <c r="C3" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" ref="D3:D20" si="0">B3-C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -524,8 +663,19 @@
       <c r="C4" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -535,8 +685,21 @@
       <c r="C5" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>12.578947368421053</v>
+      </c>
+      <c r="H5" s="8">
+        <v>14.105263157894736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -546,8 +709,21 @@
       <c r="C6" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5.9239766081871288</v>
+      </c>
+      <c r="H6" s="8">
+        <v>7.8771929824561333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -557,8 +733,21 @@
       <c r="C7" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8">
+        <v>19</v>
+      </c>
+      <c r="H7" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -568,8 +757,19 @@
       <c r="C8" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.77132297993080812</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -579,8 +779,19 @@
       <c r="C9" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -590,8 +801,19 @@
       <c r="C10" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8">
+        <v>18</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -601,8 +823,19 @@
       <c r="C11" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8">
+        <v>-3.6830036830055253</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -612,8 +845,19 @@
       <c r="C12" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="8">
+        <v>8.5093604455098448E-4</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -623,8 +867,19 @@
       <c r="C13" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.7340636066175394</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -634,8 +889,19 @@
       <c r="C14" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1.701872089101969E-3</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -645,8 +911,19 @@
       <c r="C15" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2.1009220402410378</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -656,8 +933,12 @@
       <c r="C16" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -667,8 +948,12 @@
       <c r="C17" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -678,8 +963,12 @@
       <c r="C18" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -689,8 +978,12 @@
       <c r="C19" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -699,6 +992,132 @@
       </c>
       <c r="C20" s="2">
         <v>17</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <f>COUNT(B2:B20)</f>
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <f>COUNT(C2:C20)</f>
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <f>COUNT(D2:D20)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6">
+        <f>AVERAGE(B2:B20)</f>
+        <v>12.578947368421053</v>
+      </c>
+      <c r="C23" s="6">
+        <f>AVERAGE(C2:C20)</f>
+        <v>14.105263157894736</v>
+      </c>
+      <c r="D23" s="6">
+        <f>AVERAGE(D2:D20)</f>
+        <v>-1.5263157894736843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5">
+        <f>_xlfn.VAR.S(B2:B20)</f>
+        <v>5.9239766081871288</v>
+      </c>
+      <c r="C24" s="5">
+        <f>_xlfn.VAR.S(C2:C20)</f>
+        <v>7.8771929824561333</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <f>_xlfn.STDEV.S(B2:B20)</f>
+        <v>2.4339220628826901</v>
+      </c>
+      <c r="C25" s="5">
+        <f>_xlfn.STDEV.S(C2:C20)</f>
+        <v>2.8066337456918267</v>
+      </c>
+      <c r="D25" s="5">
+        <f>_xlfn.STDEV.S(D2:D20)</f>
+        <v>1.8064212949190015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B25/SQRT(B22)</f>
+        <v>0.5583800162399839</v>
+      </c>
+      <c r="C26" s="5">
+        <f>C25/SQRT(C22)</f>
+        <v>0.64388594047377401</v>
+      </c>
+      <c r="D26" s="5">
+        <f>D25/SQRT(D22)</f>
+        <v>0.41442146705325317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5">
+        <f>_xlfn.CONFIDENCE.T(0.04, B25,B22)</f>
+        <v>1.2360876575754545</v>
+      </c>
+      <c r="C27" s="5">
+        <f>_xlfn.CONFIDENCE.T(0.04, C25,C22)</f>
+        <v>1.4253724000823293</v>
+      </c>
+      <c r="D27" s="5">
+        <f>_xlfn.CONFIDENCE.T(0.04, D25,D22)</f>
+        <v>0.91740614914606189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="7">
+        <f>B23+B27</f>
+        <v>13.815035025996508</v>
+      </c>
+      <c r="C28" s="7">
+        <f>C23+C27</f>
+        <v>15.530635557977066</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <f>_xlfn.T.TEST(B2:B20,C2:C20,2,1)</f>
+        <v>1.7018720891019846E-3</v>
       </c>
     </row>
   </sheetData>
